--- a/test_data/2020-05-09-09-27_test_data.xlsx
+++ b/test_data/2020-05-09-09-27_test_data.xlsx
@@ -361,7 +361,7 @@
   <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -426,17 +426,17 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>http://api.newcrm.group.weixin.wuerp.com/member/v1.0%s</t>
+          <t>http://api.newcrm.group.weixin.wuerp.com/member/v1.0/Guest/Register</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'OpnID': 'WCJGZFV-UXX-AEGDXYWNP-DX', 'SMSCode': '0000', 'Name': 'FGtjujg', 'OrgID': '', 'IDSource': '100', 'UserSource': '', 'Tel': '13769564315', 'Eml': '', 'IDntTp': '', 'IDntNmb': '', 'Brth': '1953-03-13', 'Sex': '1', 'Prvc': '', 'City': '', 'Addr': '', 'UnionID': '', 'JsCode': '', 'EmployeeNumber': '', 'AppID': '', 'AppSecret': ''}</t>
+          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'OpnID': 'ZZINTDR-iol-ctcuRLQSC-EO', 'SMSCode': '0000', 'Name': 'LPazzem', 'OrgID': '', 'IDSource': '100', 'UserSource': '', 'Tel': '13566649595', 'Eml': '', 'IDntTp': '', 'IDntNmb': '', 'Brth': '1984-03-14', 'Sex': '1', 'Prvc': '', 'City': '', 'Addr': '', 'UnionID': '', 'JsCode': '', 'EmployeeNumber': '', 'AppID': '', 'AppSecret': ''}</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '注册成功', 'data': {'Data': [{'opnID': 'WCJGZFV-UXX-AEGDXYWNP-DX', 'unionID': None, 'tel': '13769564315', 'smsCode': None, 'crdFaceID': '88000100000112', 'crdID': '188000100000112107', 'crmGuestId': '88000100000112', 'idTyp': None, 'isBind': True, 'isMember': True, 'lvlID': None, 'memberName': None, 'memberTypID': '01', 'orgID': '0000', 'jsCode': None, 'appID': None, 'appSecret': None, 'sessionKey': None, 'cpnID': None, 'subID': None, 'idSource': 0, 'gstID': 163}]}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '注册成功', 'data': {'Data': [{'opnID': 'ZZINTDR-iol-ctcuRLQSC-EO', 'unionID': None, 'tel': '13566649595', 'smsCode': None, 'crdFaceID': '88000100000116', 'crdID': '188000100000116325', 'crmGuestId': '88000100000116', 'idTyp': None, 'isBind': True, 'isMember': True, 'lvlID': None, 'memberName': None, 'memberTypID': '01', 'orgID': '0000', 'jsCode': None, 'appID': None, 'appSecret': None, 'sessionKey': None, 'cpnID': None, 'subID': None, 'idSource': 0, 'gstID': 168}]}}</t>
         </is>
       </c>
       <c r="G2" s="1" t="n"/>
@@ -445,7 +445,7 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>获取首页的会员数据</t>
+          <t>获取停车场数据分页</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -455,17 +455,17 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>http://api.newcrm.group.weixin.wuerp.com/member/v1.0%s</t>
+          <t>http://api.newcrm.group.weixin.wuerp.com/manage/v1.0/Park/GetParkConfigPage</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>{'CpnID': '0001', 'subID': '3378049226@qq.com', 'gstID': '96'}</t>
+          <t>{'CpnID': '0001', 'pageIndex': '1', 'pageSize': '10', 'sort': 'uptDtt desc', 'ParkID': '', 'IsSupWXPay': '', 'IsSupIntg': ''}</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取成功', 'data': {'Data': {'cpnID': '0001', 'subID': '3378049226@qq.com', 'gstID': None, 'vipID': '88000100000045', 'name': 'SKawfkl', 'vipTpName': '普通卡', 'intgAva': 0, 'tknQty': 0, 'signInDay': 0}}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageIndex': 1, 'DataCount': 36, 'PageSize': 10, 'PageDataList': [{'id': 36, 'cpnID': '0001', 'parkID': '2099861059', 'payExplain': 'apitest', 'tel': '13115794128', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:37:20'}, {'id': 35, 'cpnID': '0001', 'parkID': '2667838833', 'payExplain': 'apitest', 'tel': '13776609072', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:33:28'}, {'id': 34, 'cpnID': '0001', 'parkID': '2113813737', 'payExplain': 'apitest', 'tel': '13360898516', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:21:16'}, {'id': 33, 'cpnID': '0001', 'parkID': '3075160439', 'payExplain': 'apitest', 'tel': '13105182604', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:20:42'}, {'id': 32, 'cpnID': '0001', 'parkID': '923313415', 'payExplain': 'apitest', 'tel': '13355222303', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:16:12'}, {'id': 31, 'cpnID': '0001', 'parkID': '2779299412', 'payExplain': 'apitest', 'tel': '13989021100', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T16:38:41'}, {'id': 30, 'cpnID': '0001', 'parkID': '1980075952', 'payExplain': 'apitest', 'tel': '13972709039', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T15:57:34'}, {'id': 29, 'cpnID': '0001', 'parkID': '2340045861', 'payExplain': 'apitest', 'tel': '13744276206', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T15:55:39'}, {'id': 28, 'cpnID': '0001', 'parkID': '2224045247', 'payExplain': 'apitest', 'tel': '13639882179', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T15:54:04'}, {'id': 27, 'cpnID': '0001', 'parkID': '2122136028', 'payExplain': 'apitest', 'tel': '13208175933', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T15:40:42'}], 'PageCount': 4}}</t>
         </is>
       </c>
       <c r="G3" s="1" t="n"/>
@@ -474,7 +474,7 @@
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>获取某个会员积分明细</t>
+          <t>获取停车场缴费规则分页</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -484,222 +484,82 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>http://api.newcrm.group.weixin.wuerp.com/member/v1.0%s</t>
+          <t>http://api.newcrm.group.weixin.wuerp.com/manage/v1.0/Park/GetParkRulePage</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>{'CpnID': '0001', 'crdNo': '88000100000085', 'pageIndex': '1', 'pageSize': '10', 'sort': '1'}</t>
+          <t>{'CpnID': '0001', 'ParkID': '2099861059', 'pageIndex': '1', 'pageSize': '10', 'sort': 'uptDtt desc'}</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'DataCount': 0, 'PageSize': 10, 'PageIndex': 1, 'PageDataList': [], 'PageCount': 0}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageIndex': 1, 'DataCount': 4, 'PageSize': 10, 'PageDataList': [{'id': 21, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2099861059', 'vipTpID': '01', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:37:21'}, {'id': 22, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2099861059', 'vipTpID': '02', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:37:21'}, {'id': 23, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2099861059', 'vipTpID': '03', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:37:21'}, {'id': 24, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2099861059', 'vipTpID': '04', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:37:21'}], 'PageCount': 1}}</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>
     </row>
     <row r="5" ht="162" customHeight="1">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>查询某个会员总积分</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>http://api.newcrm.group.weixin.wuerp.com/member/v1.0%s</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>{'CpnID': '0001', 'crdNo': '88000100000085'}</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '数据更新成功', 'data': {'SumIntg': 0}}</t>
-        </is>
-      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
       <c r="G5" s="1" t="n"/>
     </row>
     <row r="6" ht="40.5" customHeight="1">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>获取某个会员的全部卡</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>http://api.newcrm.group.weixin.wuerp.com/member/v1.0%s</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'opnID': 'PNMAOOO-EIH-BJSOCVSER-NU'}</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'Data': [{'cpnID': '0001', 'crdID': '188000100000085247', 'crdNo': '88000100000085', 'crdTpid': '01', 'crdPwd': None, 'gstID': 136, 'vipID': '88000100000085', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-11T17:42:34', 'eddt': '0001-01-01T00:00:00', 'name': 'AQhiwxo', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1959-08-11T00:00:00', 'mbl': '13695835202', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-11T17:42:34'}]}}</t>
-        </is>
-      </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
       <c r="G6" s="1" t="n"/>
     </row>
     <row r="7" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>根据卡账户获取单张卡</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>http://api.newcrm.group.weixin.wuerp.com/member/v1.0%s</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>{'CpnID': '0001', 'crdID': '188000100000085247'}</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'Data': {'cpnID': '0001', 'crdID': '188000100000085247', 'crdNo': '88000100000085', 'crdTpid': '01', 'crdPwd': None, 'gstID': 136, 'vipID': '88000100000085', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-11T17:42:34', 'eddt': '0001-01-01T00:00:00', 'name': 'AQhiwxo', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1959-08-11T00:00:00', 'mbl': '13695835202', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-11T17:42:34'}}}</t>
-        </is>
-      </c>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
       <c r="G7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>生成会员动态码</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>http://api.newcrm.group.weixin.wuerp.com/member/v1.0%s</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>{'CpnID': '0001', 'Code': '188000100000085247', 'Tp': 0, 'expires': 5}</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'dynamicCode': '136979358612289104'}}</t>
-        </is>
-      </c>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
       <c r="G8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>根据动态码获取会员卡</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>http://api.newcrm.group.weixin.wuerp.com/member/v1.0%s</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>{'DynamicCode': '136979358612289104'}</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'Tp': '0', 'Data': '188000100000085247'}}</t>
-        </is>
-      </c>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>获取会员卡分页</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>http://api.newcrm.group.weixin.wuerp.com/manage/v1.0/VipCrd/GetPageByParam</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>{'CpnID': '0001', 'pageIndex': '1', 'pageSize': '10', 'sort': '1', 'CrdID': '188000100000071484', 'CrdNo': '88000100000071', 'GstID': 122}</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageSize': 10, 'DataCount': 52, 'PageDataList': [{'cpnID': '0001', 'crdID': '188000100000015248', 'crdNo': '88000100000015', 'crdTpid': '01', 'crdPwd': None, 'gstID': 66, 'vipID': '88000100000015', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-08T11:42:01', 'eddt': '0001-01-01T00:00:00', 'name': 'WLljsjz', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1963-04-18T00:00:00', 'mbl': '13692791401', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-08T11:42:01'}, {'cpnID': '0001', 'crdID': '188000100000016292', 'crdNo': '88000100000016', 'crdTpid': '01', 'crdPwd': None, 'gstID': 67, 'vipID': '88000100000016', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-08T11:48:05', 'eddt': '0001-01-01T00:00:00', 'name': 'ALwoyet', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1921-03-28T00:00:00', 'mbl': '13121452240', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-08T11:48:05'}, {'cpnID': '0001', 'crdID': '188000100000017343', 'crdNo': '88000100000017', 'crdTpid': '01', 'crdPwd': None, 'gstID': 68, 'vipID': '88000100000017', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-08T11:48:31', 'eddt': '0001-01-01T00:00:00', 'name': 'CLxzjuw', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1997-02-23T00:00:00', 'mbl': '13668133663', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-08T11:48:31'}, {'cpnID': '0001', 'crdID': '188000100000018388', 'crdNo': '88000100000018', 'crdTpid': '01', 'crdPwd': None, 'gstID': 69, 'vipID': '88000100000018', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-08T11:48:47', 'eddt': '0001-01-01T00:00:00', 'name': 'TDzyjav', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1968-07-15T00:00:00', 'mbl': '13908301037', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-08T11:48:47'}, {'cpnID': '0001', 'crdID': '188000100000019439', 'crdNo': '88000100000019', 'crdTpid': '01', 'crdPwd': None, 'gstID': 70, 'vipID': '88000100000019', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-08T11:51:55', 'eddt': '0001-01-01T00:00:00', 'name': 'OHlyrqp', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1997-08-12T00:00:00', 'mbl': '13996982535', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-08T11:51:55'}, {'cpnID': '0001', 'crdID': '188000100000020480', 'crdNo': '88000100000020', 'crdTpid': '01', 'crdPwd': None, 'gstID': 71, 'vipID': '88000100000020', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-08T11:55:20', 'eddt': '0001-01-01T00:00:00', 'name': 'ZNjqkmm', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1965-01-23T00:00:00', 'mbl': '13891288406', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-08T11:55:20'}, {'cpnID': '0001', 'crdID': '188000100000021489', 'crdNo': '88000100000021', 'crdTpid': '01', 'crdPwd': None, 'gstID': 72, 'vipID': '88000100000021', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-08T11:55:31', 'eddt': '0001-01-01T00:00:00', 'name': 'UTkhzas', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1915-07-11T00:00:00', 'mbl': '13517663730', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-08T11:55:31'}, {'cpnID': '0001', 'crdID': '188000100000022974', 'crdNo': '88000100000022', 'crdTpid': '01', 'crdPwd': None, 'gstID': 73, 'vipID': '88000100000022', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-08T11:56:11', 'eddt': '0001-01-01T00:00:00', 'name': 'BDcxxjx', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1917-07-19T00:00:00', 'mbl': '13460179742', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-08T11:56:11'}, {'cpnID': '0001', 'crdID': '188000100000023140', 'crdNo': '88000100000023', 'crdTpid': '01', 'crdPwd': None, 'gstID': 74, 'vipID': '88000100000023', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-08T11:56:53', 'eddt': '0001-01-01T00:00:00', 'name': 'RZnhlnq', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1950-04-28T00:00:00', 'mbl': '13539202796', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-08T11:56:53'}, {'cpnID': '0001', 'crdID': '188000100000024194', 'crdNo': '88000100000024', 'crdTpid': '01', 'crdPwd': None, 'gstID': 75, 'vipID': '88000100000024', 'orgID': '0000', 'maCrd': 'T', 'stt': 0, 'opnDt': '2020-06-08T12:02:12', 'eddt': '0001-01-01T00:00:00', 'name': 'RNkrbot', 'gnd': 1, 'iDntTp': None, 'iDntNmb': None, 'brthdy': '1922-05-20T00:00:00', 'mbl': '13117669248', 'fmlyRltn': None, 'impCRM': 0, 'ecrpBase': None, 'uptDtt': '2020-06-08T12:02:12'}], 'PageCount': 6, 'PageIndex': 1}}</t>
-        </is>
-      </c>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>会员解绑</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>http://api.newcrm.group.weixin.wuerp.com/member/v1.0%s</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'Tel': 13183807891}</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '解绑成功', 'data': None}</t>
-        </is>
-      </c>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
     </row>
     <row r="12">

--- a/test_data/2020-05-09-09-27_test_data.xlsx
+++ b/test_data/2020-05-09-09-27_test_data.xlsx
@@ -431,12 +431,12 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'OpnID': 'ZZINTDR-iol-ctcuRLQSC-EO', 'SMSCode': '0000', 'Name': 'LPazzem', 'OrgID': '', 'IDSource': '100', 'UserSource': '', 'Tel': '13566649595', 'Eml': '', 'IDntTp': '', 'IDntNmb': '', 'Brth': '1984-03-14', 'Sex': '1', 'Prvc': '', 'City': '', 'Addr': '', 'UnionID': '', 'JsCode': '', 'EmployeeNumber': '', 'AppID': '', 'AppSecret': ''}</t>
+          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'OpnID': 'ZQJXPFB-zqk-vtsxGELQH-XV', 'SMSCode': '0000', 'Name': 'GUqtibl', 'OrgID': '', 'IDSource': '100', 'UserSource': '', 'Tel': '13249291798', 'Eml': '', 'IDntTp': '', 'IDntNmb': '', 'Brth': '1988-02-11', 'Sex': '1', 'Prvc': '', 'City': '', 'Addr': '', 'UnionID': '', 'JsCode': '', 'EmployeeNumber': '', 'AppID': '', 'AppSecret': ''}</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '注册成功', 'data': {'Data': [{'opnID': 'ZZINTDR-iol-ctcuRLQSC-EO', 'unionID': None, 'tel': '13566649595', 'smsCode': None, 'crdFaceID': '88000100000116', 'crdID': '188000100000116325', 'crmGuestId': '88000100000116', 'idTyp': None, 'isBind': True, 'isMember': True, 'lvlID': None, 'memberName': None, 'memberTypID': '01', 'orgID': '0000', 'jsCode': None, 'appID': None, 'appSecret': None, 'sessionKey': None, 'cpnID': None, 'subID': None, 'idSource': 0, 'gstID': 168}]}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '注册成功', 'data': {'Data': [{'opnID': 'ZQJXPFB-zqk-vtsxGELQH-XV', 'unionID': None, 'tel': '13249291798', 'smsCode': None, 'crdFaceID': '88000100000131', 'crdID': '188000100000131546', 'crmGuestId': '88000100000131', 'idTyp': None, 'isBind': True, 'isMember': True, 'lvlID': None, 'memberName': None, 'memberTypID': '01', 'orgID': '0000', 'jsCode': None, 'appID': None, 'appSecret': None, 'sessionKey': None, 'cpnID': None, 'subID': None, 'idSource': 0, 'gstID': 183}]}}</t>
         </is>
       </c>
       <c r="G2" s="1" t="n"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageIndex': 1, 'DataCount': 36, 'PageSize': 10, 'PageDataList': [{'id': 36, 'cpnID': '0001', 'parkID': '2099861059', 'payExplain': 'apitest', 'tel': '13115794128', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:37:20'}, {'id': 35, 'cpnID': '0001', 'parkID': '2667838833', 'payExplain': 'apitest', 'tel': '13776609072', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:33:28'}, {'id': 34, 'cpnID': '0001', 'parkID': '2113813737', 'payExplain': 'apitest', 'tel': '13360898516', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:21:16'}, {'id': 33, 'cpnID': '0001', 'parkID': '3075160439', 'payExplain': 'apitest', 'tel': '13105182604', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:20:42'}, {'id': 32, 'cpnID': '0001', 'parkID': '923313415', 'payExplain': 'apitest', 'tel': '13355222303', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:16:12'}, {'id': 31, 'cpnID': '0001', 'parkID': '2779299412', 'payExplain': 'apitest', 'tel': '13989021100', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T16:38:41'}, {'id': 30, 'cpnID': '0001', 'parkID': '1980075952', 'payExplain': 'apitest', 'tel': '13972709039', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T15:57:34'}, {'id': 29, 'cpnID': '0001', 'parkID': '2340045861', 'payExplain': 'apitest', 'tel': '13744276206', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T15:55:39'}, {'id': 28, 'cpnID': '0001', 'parkID': '2224045247', 'payExplain': 'apitest', 'tel': '13639882179', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T15:54:04'}, {'id': 27, 'cpnID': '0001', 'parkID': '2122136028', 'payExplain': 'apitest', 'tel': '13208175933', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-17T15:40:42'}], 'PageCount': 4}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageCount': 6, 'PageIndex': 1, 'PageSize': 10, 'PageDataList': [{'id': 54, 'cpnID': '0001', 'parkID': '1772183893', 'payExplain': 'apitest', 'tel': '13818542257', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-22T17:11:32'}, {'id': 53, 'cpnID': '0001', 'parkID': '2427079053', 'payExplain': 'apitest', 'tel': '13978251892', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-22T17:10:28'}, {'id': 52, 'cpnID': '0001', 'parkID': '1568253561', 'payExplain': 'apitest', 'tel': '13279076489', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-22T16:02:10'}, {'id': 51, 'cpnID': '0001', 'parkID': '2665693846', 'payExplain': 'apitest', 'tel': '13364085796', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-22T16:00:51'}, {'id': 50, 'cpnID': '0001', 'parkID': '3452477007', 'payExplain': 'apitest', 'tel': '13611025996', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-22T15:17:48'}, {'id': 49, 'cpnID': '0001', 'parkID': '1345005620', 'payExplain': 'apitest', 'tel': '13154016388', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-18T16:44:06'}, {'id': 48, 'cpnID': '0001', 'parkID': '1888377457', 'payExplain': 'apitest', 'tel': '13110148641', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-18T15:49:12'}, {'id': 47, 'cpnID': '0001', 'parkID': '2269730403', 'payExplain': 'apitest', 'tel': '13943907893', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-18T15:35:36'}, {'id': 46, 'cpnID': '0001', 'parkID': '2010703434', 'payExplain': 'apitest', 'tel': '13234589707', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-18T15:32:10'}, {'id': 45, 'cpnID': '0001', 'parkID': '2160615630', 'payExplain': 'apitest', 'tel': '13366314018', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-18T15:27:00'}], 'DataCount': 54}}</t>
         </is>
       </c>
       <c r="G3" s="1" t="n"/>
@@ -489,12 +489,12 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>{'CpnID': '0001', 'ParkID': '2099861059', 'pageIndex': '1', 'pageSize': '10', 'sort': 'uptDtt desc'}</t>
+          <t>{'CpnID': '0001', 'ParkID': '1772183893', 'pageIndex': '1', 'pageSize': '10', 'sort': 'uptDtt desc'}</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageIndex': 1, 'DataCount': 4, 'PageSize': 10, 'PageDataList': [{'id': 21, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2099861059', 'vipTpID': '01', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:37:21'}, {'id': 22, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2099861059', 'vipTpID': '02', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:37:21'}, {'id': 23, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2099861059', 'vipTpID': '03', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:37:21'}, {'id': 24, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2099861059', 'vipTpID': '04', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-17T17:37:21'}], 'PageCount': 1}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageCount': 1, 'PageIndex': 1, 'PageSize': 10, 'PageDataList': [{'id': 63, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1772183893', 'vipTpID': '01', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-22T17:11:32'}, {'id': 64, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1772183893', 'vipTpID': '02', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-22T17:11:32'}, {'id': 65, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1772183893', 'vipTpID': '03', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-22T17:11:32'}], 'DataCount': 3}}</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>

--- a/test_data/2020-05-09-09-27_test_data.xlsx
+++ b/test_data/2020-05-09-09-27_test_data.xlsx
@@ -431,12 +431,12 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'OpnID': 'ZQJXPFB-zqk-vtsxGELQH-XV', 'SMSCode': '0000', 'Name': 'GUqtibl', 'OrgID': '', 'IDSource': '100', 'UserSource': '', 'Tel': '13249291798', 'Eml': '', 'IDntTp': '', 'IDntNmb': '', 'Brth': '1988-02-11', 'Sex': '1', 'Prvc': '', 'City': '', 'Addr': '', 'UnionID': '', 'JsCode': '', 'EmployeeNumber': '', 'AppID': '', 'AppSecret': ''}</t>
+          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'OpnID': 'NOJPVVC-rio-ghtzYRLVC-CR', 'SMSCode': '0000', 'Name': 'OEmqvxb', 'OrgID': '', 'IDSource': '100', 'UserSource': '', 'Tel': '13770309506', 'Eml': '', 'IDntTp': '', 'IDntNmb': '', 'Brth': '1922-08-17', 'Sex': '1', 'Prvc': '', 'City': '', 'Addr': '', 'UnionID': '', 'JsCode': '', 'EmployeeNumber': '', 'AppID': '', 'AppSecret': ''}</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '注册成功', 'data': {'Data': [{'opnID': 'ZQJXPFB-zqk-vtsxGELQH-XV', 'unionID': None, 'tel': '13249291798', 'smsCode': None, 'crdFaceID': '88000100000131', 'crdID': '188000100000131546', 'crmGuestId': '88000100000131', 'idTyp': None, 'isBind': True, 'isMember': True, 'lvlID': None, 'memberName': None, 'memberTypID': '01', 'orgID': '0000', 'jsCode': None, 'appID': None, 'appSecret': None, 'sessionKey': None, 'cpnID': None, 'subID': None, 'idSource': 0, 'gstID': 183}]}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '注册成功', 'data': {'Data': [{'opnID': 'NOJPVVC-rio-ghtzYRLVC-CR', 'unionID': None, 'tel': '13770309506', 'smsCode': None, 'crdFaceID': '88000100000137', 'crdID': '188000100000137373', 'crmGuestId': '88000100000137', 'idTyp': None, 'isBind': True, 'isMember': True, 'lvlID': None, 'memberName': None, 'memberTypID': '01', 'orgID': '0000', 'jsCode': None, 'appID': None, 'appSecret': None, 'sessionKey': None, 'cpnID': None, 'subID': None, 'idSource': 0, 'gstID': 189}]}}</t>
         </is>
       </c>
       <c r="G2" s="1" t="n"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageCount': 6, 'PageIndex': 1, 'PageSize': 10, 'PageDataList': [{'id': 54, 'cpnID': '0001', 'parkID': '1772183893', 'payExplain': 'apitest', 'tel': '13818542257', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-22T17:11:32'}, {'id': 53, 'cpnID': '0001', 'parkID': '2427079053', 'payExplain': 'apitest', 'tel': '13978251892', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-22T17:10:28'}, {'id': 52, 'cpnID': '0001', 'parkID': '1568253561', 'payExplain': 'apitest', 'tel': '13279076489', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-22T16:02:10'}, {'id': 51, 'cpnID': '0001', 'parkID': '2665693846', 'payExplain': 'apitest', 'tel': '13364085796', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-22T16:00:51'}, {'id': 50, 'cpnID': '0001', 'parkID': '3452477007', 'payExplain': 'apitest', 'tel': '13611025996', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-22T15:17:48'}, {'id': 49, 'cpnID': '0001', 'parkID': '1345005620', 'payExplain': 'apitest', 'tel': '13154016388', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-18T16:44:06'}, {'id': 48, 'cpnID': '0001', 'parkID': '1888377457', 'payExplain': 'apitest', 'tel': '13110148641', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-18T15:49:12'}, {'id': 47, 'cpnID': '0001', 'parkID': '2269730403', 'payExplain': 'apitest', 'tel': '13943907893', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-18T15:35:36'}, {'id': 46, 'cpnID': '0001', 'parkID': '2010703434', 'payExplain': 'apitest', 'tel': '13234589707', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-18T15:32:10'}, {'id': 45, 'cpnID': '0001', 'parkID': '2160615630', 'payExplain': 'apitest', 'tel': '13366314018', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-18T15:27:00'}], 'DataCount': 54}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageIndex': 1, 'PageCount': 7, 'PageSize': 10, 'PageDataList': [{'id': 65, 'cpnID': '0001', 'parkID': '2316800243', 'payExplain': 'apitest', 'tel': '13175176921', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:17:05'}, {'id': 64, 'cpnID': '0001', 'parkID': '1665575645', 'payExplain': 'apitest', 'tel': '13548355038', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:16:38'}, {'id': 63, 'cpnID': '0001', 'parkID': '2119557503', 'payExplain': 'apitest', 'tel': '13413469189', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:15:37'}, {'id': 62, 'cpnID': '0001', 'parkID': '1494321559', 'payExplain': 'apitest', 'tel': '13607459172', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:14:19'}, {'id': 61, 'cpnID': '0001', 'parkID': '1767742790', 'payExplain': 'apitest', 'tel': '13730417586', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:10:58'}, {'id': 60, 'cpnID': '0001', 'parkID': '2839311035', 'payExplain': 'apitest', 'tel': '13957565299', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:09:42'}, {'id': 59, 'cpnID': '0001', 'parkID': '1805135766', 'payExplain': 'apitest', 'tel': '13877819869', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T12:05:06'}, {'id': 58, 'cpnID': '0001', 'parkID': '1712811233', 'payExplain': 'apitest', 'tel': '13800579216', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T12:04:36'}, {'id': 57, 'cpnID': '0001', 'parkID': '1386338621', 'payExplain': 'apitest', 'tel': '13776884221', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T11:57:57'}, {'id': 56, 'cpnID': '0001', 'parkID': '2200642156', 'payExplain': 'apitest', 'tel': '13354818821', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T11:49:24'}], 'DataCount': 65}}</t>
         </is>
       </c>
       <c r="G3" s="1" t="n"/>
@@ -489,12 +489,12 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>{'CpnID': '0001', 'ParkID': '1772183893', 'pageIndex': '1', 'pageSize': '10', 'sort': 'uptDtt desc'}</t>
+          <t>{'CpnID': '0001', 'ParkID': '2316800243', 'pageIndex': '1', 'pageSize': '10', 'sort': 'uptDtt desc'}</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageCount': 1, 'PageIndex': 1, 'PageSize': 10, 'PageDataList': [{'id': 63, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1772183893', 'vipTpID': '01', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-22T17:11:32'}, {'id': 64, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1772183893', 'vipTpID': '02', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-22T17:11:32'}, {'id': 65, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1772183893', 'vipTpID': '03', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-22T17:11:32'}], 'DataCount': 3}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageIndex': 1, 'PageCount': 1, 'PageSize': 10, 'PageDataList': [{'id': 93, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2316800243', 'vipTpID': '01', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:17:05'}, {'id': 94, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2316800243', 'vipTpID': '02', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:17:05'}, {'id': 95, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2316800243', 'vipTpID': '03', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:17:05'}], 'DataCount': 3}}</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>

--- a/test_data/2020-05-09-09-27_test_data.xlsx
+++ b/test_data/2020-05-09-09-27_test_data.xlsx
@@ -431,12 +431,12 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'OpnID': 'NOJPVVC-rio-ghtzYRLVC-CR', 'SMSCode': '0000', 'Name': 'OEmqvxb', 'OrgID': '', 'IDSource': '100', 'UserSource': '', 'Tel': '13770309506', 'Eml': '', 'IDntTp': '', 'IDntNmb': '', 'Brth': '1922-08-17', 'Sex': '1', 'Prvc': '', 'City': '', 'Addr': '', 'UnionID': '', 'JsCode': '', 'EmployeeNumber': '', 'AppID': '', 'AppSecret': ''}</t>
+          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'OpnID': 'FQAZEJC-kfn-zvluVBWOS-XV', 'SMSCode': '0000', 'Name': 'BRdbzca', 'OrgID': '', 'IDSource': '100', 'UserSource': '', 'Tel': '13168867862', 'Eml': '', 'IDntTp': '', 'IDntNmb': '', 'Brth': '1958-06-24', 'Sex': '1', 'Prvc': '', 'City': '', 'Addr': '', 'UnionID': '', 'JsCode': '', 'EmployeeNumber': '', 'AppID': '', 'AppSecret': ''}</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '注册成功', 'data': {'Data': [{'opnID': 'NOJPVVC-rio-ghtzYRLVC-CR', 'unionID': None, 'tel': '13770309506', 'smsCode': None, 'crdFaceID': '88000100000137', 'crdID': '188000100000137373', 'crmGuestId': '88000100000137', 'idTyp': None, 'isBind': True, 'isMember': True, 'lvlID': None, 'memberName': None, 'memberTypID': '01', 'orgID': '0000', 'jsCode': None, 'appID': None, 'appSecret': None, 'sessionKey': None, 'cpnID': None, 'subID': None, 'idSource': 0, 'gstID': 189}]}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '注册成功', 'data': {'Data': [{'opnID': 'FQAZEJC-kfn-zvluVBWOS-XV', 'unionID': None, 'tel': '13168867862', 'smsCode': None, 'crdFaceID': '88000100000143', 'crdID': '188000100000143161', 'crmGuestId': '88000100000143', 'idTyp': None, 'isBind': True, 'isMember': True, 'lvlID': None, 'memberName': None, 'memberTypID': '01', 'orgID': '0000', 'jsCode': None, 'appID': None, 'appSecret': None, 'sessionKey': None, 'cpnID': None, 'subID': None, 'idSource': 0, 'gstID': 195}]}}</t>
         </is>
       </c>
       <c r="G2" s="1" t="n"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageIndex': 1, 'PageCount': 7, 'PageSize': 10, 'PageDataList': [{'id': 65, 'cpnID': '0001', 'parkID': '2316800243', 'payExplain': 'apitest', 'tel': '13175176921', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:17:05'}, {'id': 64, 'cpnID': '0001', 'parkID': '1665575645', 'payExplain': 'apitest', 'tel': '13548355038', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:16:38'}, {'id': 63, 'cpnID': '0001', 'parkID': '2119557503', 'payExplain': 'apitest', 'tel': '13413469189', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:15:37'}, {'id': 62, 'cpnID': '0001', 'parkID': '1494321559', 'payExplain': 'apitest', 'tel': '13607459172', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:14:19'}, {'id': 61, 'cpnID': '0001', 'parkID': '1767742790', 'payExplain': 'apitest', 'tel': '13730417586', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:10:58'}, {'id': 60, 'cpnID': '0001', 'parkID': '2839311035', 'payExplain': 'apitest', 'tel': '13957565299', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:09:42'}, {'id': 59, 'cpnID': '0001', 'parkID': '1805135766', 'payExplain': 'apitest', 'tel': '13877819869', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T12:05:06'}, {'id': 58, 'cpnID': '0001', 'parkID': '1712811233', 'payExplain': 'apitest', 'tel': '13800579216', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T12:04:36'}, {'id': 57, 'cpnID': '0001', 'parkID': '1386338621', 'payExplain': 'apitest', 'tel': '13776884221', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T11:57:57'}, {'id': 56, 'cpnID': '0001', 'parkID': '2200642156', 'payExplain': 'apitest', 'tel': '13354818821', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24T11:49:24'}], 'DataCount': 65}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageDataList': [{'id': 64, 'cpnID': '0001', 'parkID': '1665575645', 'payExplain': 'apitest', 'tel': '13548355038', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:16:38'}, {'id': 63, 'cpnID': '0001', 'parkID': '2119557503', 'payExplain': 'apitest', 'tel': '13413469189', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:15:37'}, {'id': 62, 'cpnID': '0001', 'parkID': '1494321559', 'payExplain': 'apitest', 'tel': '13607459172', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:14:19'}, {'id': 61, 'cpnID': '0001', 'parkID': '1767742790', 'payExplain': 'apitest', 'tel': '13730417586', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:10:58'}, {'id': 60, 'cpnID': '0001', 'parkID': '2839311035', 'payExplain': 'apitest', 'tel': '13957565299', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:09:42'}, {'id': 59, 'cpnID': '0001', 'parkID': '1805135766', 'payExplain': 'apitest', 'tel': '13877819869', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 12:05:06'}, {'id': 58, 'cpnID': '0001', 'parkID': '1712811233', 'payExplain': 'apitest', 'tel': '13800579216', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 12:04:36'}, {'id': 57, 'cpnID': '0001', 'parkID': '1386338621', 'payExplain': 'apitest', 'tel': '13776884221', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 11:57:57'}, {'id': 56, 'cpnID': '0001', 'parkID': '2200642156', 'payExplain': 'apitest', 'tel': '13354818821', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 11:49:24'}, {'id': 55, 'cpnID': '0001', 'parkID': '2057205229', 'payExplain': 'apitest', 'tel': '13982134449', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 11:47:47'}], 'PageSize': 10, 'DataCount': 66, 'PageIndex': 1, 'PageCount': 7}}</t>
         </is>
       </c>
       <c r="G3" s="1" t="n"/>
@@ -489,23 +489,43 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>{'CpnID': '0001', 'ParkID': '2316800243', 'pageIndex': '1', 'pageSize': '10', 'sort': 'uptDtt desc'}</t>
+          <t>{'CpnID': '0001', 'ParkID': '1665575645', 'pageIndex': '1', 'pageSize': '10', 'sort': 'uptDtt desc'}</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageIndex': 1, 'PageCount': 1, 'PageSize': 10, 'PageDataList': [{'id': 93, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2316800243', 'vipTpID': '01', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:17:05'}, {'id': 94, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2316800243', 'vipTpID': '02', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:17:05'}, {'id': 95, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2316800243', 'vipTpID': '03', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-24T14:17:05'}], 'DataCount': 3}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageDataList': [{'id': 100, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1665575645', 'vipTpID': '01', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-28 11:09:41'}, {'id': 101, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1665575645', 'vipTpID': '02', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-28 11:09:41'}, {'id': 102, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1665575645', 'vipTpID': '03', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-28 11:09:41'}], 'PageSize': 10, 'DataCount': 3, 'PageIndex': 1, 'PageCount': 1}}</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>
     </row>
     <row r="5" ht="162" customHeight="1">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>上传小票到s3</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>POST</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>http://api.newcrm.group.weixin.wuerp.com/member/v1.0/Guest/UnloadPic</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>{'CpnID': '0001'}</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>{'success': True, 'errorCode': 0, 'message': '上传成功', 'data': {'Data': 'https://s3.cn-northwest-1.amazonaws.com.cn/wechatcard.test.system/0001/Image/Gst/202006/20200628104451248100024.jpg'}}</t>
+        </is>
+      </c>
       <c r="G5" s="1" t="n"/>
     </row>
     <row r="6" ht="40.5" customHeight="1">

--- a/test_data/2020-05-09-09-27_test_data.xlsx
+++ b/test_data/2020-05-09-09-27_test_data.xlsx
@@ -431,12 +431,12 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'OpnID': 'FQAZEJC-kfn-zvluVBWOS-XV', 'SMSCode': '0000', 'Name': 'BRdbzca', 'OrgID': '', 'IDSource': '100', 'UserSource': '', 'Tel': '13168867862', 'Eml': '', 'IDntTp': '', 'IDntNmb': '', 'Brth': '1958-06-24', 'Sex': '1', 'Prvc': '', 'City': '', 'Addr': '', 'UnionID': '', 'JsCode': '', 'EmployeeNumber': '', 'AppID': '', 'AppSecret': ''}</t>
+          <t>{'CpnID': '0001', 'SubID': '3378049226@qq.com', 'OpnID': 'UTJAXED-pkf-ojgqTYFJY-FG', 'SMSCode': '0000', 'Name': 'UOatymz', 'OrgID': '', 'IDSource': '100', 'UserSource': '', 'Tel': '13286546126', 'Eml': '', 'IDntTp': '', 'IDntNmb': '', 'Brth': '1979-04-12', 'Sex': '1', 'Prvc': '', 'City': '', 'Addr': '', 'UnionID': '', 'JsCode': '', 'EmployeeNumber': '', 'AppID': '', 'AppSecret': ''}</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '注册成功', 'data': {'Data': [{'opnID': 'FQAZEJC-kfn-zvluVBWOS-XV', 'unionID': None, 'tel': '13168867862', 'smsCode': None, 'crdFaceID': '88000100000143', 'crdID': '188000100000143161', 'crmGuestId': '88000100000143', 'idTyp': None, 'isBind': True, 'isMember': True, 'lvlID': None, 'memberName': None, 'memberTypID': '01', 'orgID': '0000', 'jsCode': None, 'appID': None, 'appSecret': None, 'sessionKey': None, 'cpnID': None, 'subID': None, 'idSource': 0, 'gstID': 195}]}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '注册成功', 'data': {'Data': [{'nickName': None, 'name': None, 'avt': None, 'opnID': 'UTJAXED-pkf-ojgqTYFJY-FG', 'unionID': None, 'tel': '13286546126', 'smsCode': None, 'crdFaceID': '88000100000147', 'crdID': '188000100000147370', 'crmGuestId': '88000100000147', 'idTyp': None, 'isBind': True, 'isMember': True, 'lvlID': None, 'memberName': None, 'memberTypID': '01', 'orgID': '0000', 'jsCode': None, 'appID': None, 'appSecret': None, 'sessionKey': None, 'cpnID': None, 'subID': None, 'idSource': None, 'gstID': 199, 'vipTpStt': None}]}}</t>
         </is>
       </c>
       <c r="G2" s="1" t="n"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageDataList': [{'id': 64, 'cpnID': '0001', 'parkID': '1665575645', 'payExplain': 'apitest', 'tel': '13548355038', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:16:38'}, {'id': 63, 'cpnID': '0001', 'parkID': '2119557503', 'payExplain': 'apitest', 'tel': '13413469189', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:15:37'}, {'id': 62, 'cpnID': '0001', 'parkID': '1494321559', 'payExplain': 'apitest', 'tel': '13607459172', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:14:19'}, {'id': 61, 'cpnID': '0001', 'parkID': '1767742790', 'payExplain': 'apitest', 'tel': '13730417586', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:10:58'}, {'id': 60, 'cpnID': '0001', 'parkID': '2839311035', 'payExplain': 'apitest', 'tel': '13957565299', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:09:42'}, {'id': 59, 'cpnID': '0001', 'parkID': '1805135766', 'payExplain': 'apitest', 'tel': '13877819869', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 12:05:06'}, {'id': 58, 'cpnID': '0001', 'parkID': '1712811233', 'payExplain': 'apitest', 'tel': '13800579216', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 12:04:36'}, {'id': 57, 'cpnID': '0001', 'parkID': '1386338621', 'payExplain': 'apitest', 'tel': '13776884221', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 11:57:57'}, {'id': 56, 'cpnID': '0001', 'parkID': '2200642156', 'payExplain': 'apitest', 'tel': '13354818821', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 11:49:24'}, {'id': 55, 'cpnID': '0001', 'parkID': '2057205229', 'payExplain': 'apitest', 'tel': '13982134449', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 11:47:47'}], 'PageSize': 10, 'DataCount': 66, 'PageIndex': 1, 'PageCount': 7}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageDataList': [{'id': 64, 'cpnID': '0001', 'parkID': '1665575645', 'payExplain': 'apitest', 'tel': '13548355038', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:16:38'}, {'id': 63, 'cpnID': '0001', 'parkID': '2119557503', 'payExplain': 'apitest', 'tel': '13413469189', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:15:37'}, {'id': 62, 'cpnID': '0001', 'parkID': '1494321559', 'payExplain': 'apitest', 'tel': '13607459172', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:14:19'}, {'id': 61, 'cpnID': '0001', 'parkID': '1767742790', 'payExplain': 'apitest', 'tel': '13730417586', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:10:58'}, {'id': 60, 'cpnID': '0001', 'parkID': '2839311035', 'payExplain': 'apitest', 'tel': '13957565299', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 14:09:42'}, {'id': 59, 'cpnID': '0001', 'parkID': '1805135766', 'payExplain': 'apitest', 'tel': '13877819869', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 12:05:06'}, {'id': 58, 'cpnID': '0001', 'parkID': '1712811233', 'payExplain': 'apitest', 'tel': '13800579216', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 12:04:36'}, {'id': 57, 'cpnID': '0001', 'parkID': '1386338621', 'payExplain': 'apitest', 'tel': '13776884221', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 11:57:57'}, {'id': 56, 'cpnID': '0001', 'parkID': '2200642156', 'payExplain': 'apitest', 'tel': '13354818821', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 11:49:24'}, {'id': 55, 'cpnID': '0001', 'parkID': '2057205229', 'payExplain': 'apitest', 'tel': '13982134449', 'isSupWXPay': 0, 'isSupIntg': 0, 'isSupIntgAuto': 0, 'parkUrl': '0', 'loginUrl': '0', 'bllNoUrl': '0', 'parkUser': '0', 'parkPwd': '0', 'parkKey': '0', 'secretKey': '0', 'uptr': 'miscs3', 'uptDtt': '2020-06-24 11:47:47'}], 'PageCount': 7, 'DataCount': 66, 'PageIndex': 1, 'PageSize': 10}}</t>
         </is>
       </c>
       <c r="G3" s="1" t="n"/>
@@ -489,12 +489,12 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>{'CpnID': '0001', 'ParkID': '1665575645', 'pageIndex': '1', 'pageSize': '10', 'sort': 'uptDtt desc'}</t>
+          <t>{'CpnID': '0001', 'ParkID': '2483439775', 'pageIndex': '1', 'pageSize': '10', 'sort': 'uptDtt desc'}</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageDataList': [{'id': 100, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1665575645', 'vipTpID': '01', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-28 11:09:41'}, {'id': 101, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1665575645', 'vipTpID': '02', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-28 11:09:41'}, {'id': 102, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '1665575645', 'vipTpID': '03', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-06-28 11:09:41'}], 'PageSize': 10, 'DataCount': 3, 'PageIndex': 1, 'PageCount': 1}}</t>
+          <t>{'success': True, 'errorCode': 0, 'message': '获取数据成功', 'data': {'PageDataList': [{'id': 103, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2483439775', 'vipTpID': '01', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-07-01 14:43:21'}, {'id': 104, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2483439775', 'vipTpID': '02', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-07-01 14:43:21'}, {'id': 105, 'cpnID': '0001', 'subID': '3378049226@qq.com', 'parkID': '2483439775', 'vipTpID': '03', 'isEv': 0, 'calculaTyp': 0, 'freeMinute': 0, 'startMinute': 0, 'startMoney': 0.0, 'startIntg': 0.0, 'startGold': 0.0, 'intrvalTime': 5, 'intrvalMoney': 5.0, 'intrvalIntg': 5.0, 'intrvalGold': 5.0, 'consumMoney': 0.0, 'consFreeMinute': 0, 'intgSupportHour': 0, 'uptr': 'miscs3', 'uptDtt': '2020-07-01 14:43:21'}], 'PageCount': 1, 'DataCount': 3, 'PageIndex': 1, 'PageSize': 10}}</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>
